--- a/unitedsite/static/Template/tPreAlerta.xlsx
+++ b/unitedsite/static/Template/tPreAlerta.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_src\pythonConceptStudyProject\unitedsite\static\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isabel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB80043-381A-49D2-9500-4463F37C7626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBAD744-068B-48AB-B3F5-AAC7C955B3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRE-PAYMENT-ALERT" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_Order1" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'PRE-PAYMENT-ALERT'!$A$1:$J$53</definedName>
     <definedName name="cs" localSheetId="0">#REF!</definedName>
     <definedName name="cs">#REF!</definedName>
     <definedName name="D" localSheetId="0">#REF!</definedName>
@@ -49,8 +50,6 @@
     <definedName name="Fact">#REF!</definedName>
     <definedName name="Factura" localSheetId="0">#REF!</definedName>
     <definedName name="Factura">#REF!</definedName>
-    <definedName name="fc" localSheetId="0">#REF!</definedName>
-    <definedName name="fc">#REF!</definedName>
     <definedName name="FGH" localSheetId="0">#REF!</definedName>
     <definedName name="FGH">#REF!</definedName>
     <definedName name="GF" localSheetId="0">#REF!</definedName>
@@ -61,7 +60,6 @@
     <definedName name="JH">#REF!</definedName>
     <definedName name="OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO" localSheetId="0">#REF!</definedName>
     <definedName name="OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'PRE-PAYMENT-ALERT'!$A$1:$J$53</definedName>
     <definedName name="PURCHASE" localSheetId="0">'PRE-PAYMENT-ALERT'!#REF!</definedName>
     <definedName name="PURCHASE">#REF!</definedName>
     <definedName name="rrr" localSheetId="0">#REF!</definedName>
@@ -80,7 +78,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -88,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>R.U.T.: 76.282.481-7</t>
   </si>
@@ -102,18 +99,9 @@
     <t>ISSUE</t>
   </si>
   <si>
-    <t xml:space="preserve">GIRO </t>
-  </si>
-  <si>
     <t>ADDRESS:</t>
   </si>
   <si>
-    <t>STATE</t>
-  </si>
-  <si>
-    <t>CITY</t>
-  </si>
-  <si>
     <t>CONTACT:</t>
   </si>
   <si>
@@ -150,15 +138,6 @@
     <t>ORIGIN : CHILE</t>
   </si>
   <si>
-    <t>NOMBRE:</t>
-  </si>
-  <si>
-    <t>FIRMA</t>
-  </si>
-  <si>
-    <t>FECHA:</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRE-PAYMENT ALERT </t>
   </si>
   <si>
@@ -166,6 +145,33 @@
   </si>
   <si>
     <t>RESERVADO</t>
+  </si>
+  <si>
+    <t>MR(S):</t>
+  </si>
+  <si>
+    <t>CURRENCY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>GIRO:</t>
+  </si>
+  <si>
+    <t>STATE:</t>
+  </si>
+  <si>
+    <t>CITY:</t>
+  </si>
+  <si>
+    <t>Bank transfer or deposit
+Account Name: US UNITED LOGISTIC CHILE SPA
+RUT: 76.282.481-7
+Bank Name: Banco de Crédito e Inversiones - BCI
+USD  Account Number: 18555390
+Email: unitedlogistic.chile@gmail.com</t>
   </si>
   <si>
     <r>
@@ -189,29 +195,8 @@
 SERV. ADMINIST. TRANSP. AEREO, NAVIERA Y TERRES
 AV. NUEVA PROVIDENCIA 1881, OF. 1201
 PROVIDENCIA, SANTIAGO - CHILE
-Email: UNITEDLOGISTIC@GMAIL.COM</t>
+Email: UNITEDLOGISTIC.CHILE@GMAIL.COM</t>
     </r>
-  </si>
-  <si>
-    <t>MR(S):</t>
-  </si>
-  <si>
-    <t>CURRENCY:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>MOBIL:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank transfer or deposit			
-Account Name: US UNITED LOGISTIC CHILE SPA			
-RUT: 76.282.481-7			
-Bank Name: Banco de Crédito e Inversiones - BCI			
-USD  Account Number: 18555390			
-Email: unitedlogistic.chile@gmail.com			</t>
   </si>
 </sst>
 </file>
@@ -229,7 +214,7 @@
     <numFmt numFmtId="171" formatCode="[DBNum2][$-804]General"/>
     <numFmt numFmtId="172" formatCode="[DBNum1][$-804]General"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -408,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -518,53 +503,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color theme="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,17 +631,6 @@
         <color theme="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="8"/>
@@ -717,7 +654,7 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -815,45 +752,26 @@
     <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="13" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="13" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -879,9 +797,9 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -893,19 +811,13 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -936,9 +848,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -949,31 +858,220 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="16" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="16" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="171" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="172" fontId="22" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="22" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -990,227 +1088,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="172" fontId="22" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="No-definido" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1266,7 +1173,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1592,11 +1499,11 @@
   </sheetPr>
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A10" colorId="22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:G39"/>
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="15" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="15" customWidth="1"/>
@@ -1615,7 +1522,7 @@
     <col min="15" max="16384" width="9.7109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1627,7 +1534,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1639,76 +1546,76 @@
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="14.25" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
+      <c r="D3" s="147" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="95" t="s">
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="96"/>
+      <c r="I4" s="141"/>
       <c r="J4" s="2"/>
       <c r="M4" s="21"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="98"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="143"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="98"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="142" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="143"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="12.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="103"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="148"/>
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="13.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1720,33 +1627,33 @@
       <c r="I8" s="17"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="13.5" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
+      <c r="B9" s="144" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="13.5" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="2"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
@@ -1758,32 +1665,32 @@
       <c r="I11" s="26"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="2"/>
-      <c r="B12" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="84"/>
+      <c r="B12" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="75"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="78"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="26" t="s">
         <v>1</v>
       </c>
       <c r="I12" s="28"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="2"/>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="51" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="78"/>
+      <c r="G13" s="70"/>
       <c r="H13" s="26" t="s">
         <v>3</v>
       </c>
@@ -1791,75 +1698,75 @@
       <c r="J13" s="2"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="9.75" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="115"/>
+      <c r="B14" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="131"/>
       <c r="H14" s="26"/>
       <c r="I14" s="31"/>
       <c r="J14" s="2"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="13.5">
       <c r="A15" s="2"/>
-      <c r="B15" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
+      <c r="B15" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="76"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="68"/>
       <c r="I15" s="30"/>
       <c r="J15" s="2"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="2"/>
-      <c r="B16" s="81" t="s">
-        <v>6</v>
+      <c r="B16" s="73" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="77" t="s">
-        <v>7</v>
+      <c r="D16" s="48"/>
+      <c r="E16" s="69" t="s">
+        <v>25</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="G16" s="82"/>
+      <c r="G16" s="74"/>
       <c r="H16" s="32"/>
       <c r="I16" s="33"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="2"/>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="74"/>
+      <c r="H17" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="82"/>
-      <c r="H17" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>11</v>
-      </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
@@ -1871,7 +1778,7 @@
       <c r="I18" s="33"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="2"/>
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
@@ -1883,306 +1790,306 @@
       <c r="I19" s="41"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="2"/>
       <c r="B20" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="I20" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>16</v>
-      </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="2"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="2"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="118" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
       <c r="J22" s="2"/>
       <c r="L22" s="18"/>
     </row>
-    <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="12.75" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="54"/>
-    </row>
-    <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="48"/>
+    </row>
+    <row r="24" spans="1:14" ht="12.75" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
       <c r="J24" s="2"/>
       <c r="K24" s="20"/>
       <c r="L24" s="18"/>
     </row>
-    <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="12.75" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-    </row>
-    <row r="26" spans="1:14" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="133"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="133"/>
+      <c r="N25" s="133"/>
+    </row>
+    <row r="26" spans="1:14" s="20" customFormat="1" ht="12.75" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-    </row>
-    <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+    </row>
+    <row r="27" spans="1:14" ht="12.75" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:14" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="20" customFormat="1" ht="12.75" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="12.75" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="12.75" customHeight="1">
       <c r="A30" s="2"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="12.75" customHeight="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="12.75" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="153"/>
-    </row>
-    <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+    </row>
+    <row r="33" spans="1:14" ht="12.75" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="154"/>
-      <c r="L33" s="154"/>
-      <c r="M33" s="154"/>
-      <c r="N33" s="154"/>
-    </row>
-    <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+    </row>
+    <row r="34" spans="1:14" ht="12.75" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="12.75" customHeight="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
       <c r="J35" s="2"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="12.75" customHeight="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="138"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="12.75" customHeight="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="161"/>
-      <c r="E37" s="162"/>
-      <c r="F37" s="162"/>
-      <c r="G37" s="163"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="2"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="91"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="82"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="13.5">
       <c r="A39" s="2"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="166"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="167"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="90"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="81"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="2"/>
-      <c r="B40" s="92"/>
+      <c r="B40" s="83"/>
       <c r="C40" s="40"/>
-      <c r="D40" s="64"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="40"/>
-      <c r="F40" s="65"/>
+      <c r="F40" s="59"/>
       <c r="G40" s="40"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="90"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="81"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="2"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="90"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="81"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="2"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -2191,146 +2098,138 @@
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="91"/>
+        <v>15</v>
+      </c>
+      <c r="I42" s="82"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="13.5" customHeight="1">
       <c r="A43" s="2"/>
-      <c r="B43" s="139" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="140"/>
-      <c r="F43" s="140"/>
-      <c r="G43" s="141"/>
-      <c r="H43" s="158" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" s="159"/>
+      <c r="B43" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="108"/>
       <c r="J43" s="2"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="13.5" customHeight="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="142"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
-      <c r="E44" s="143"/>
-      <c r="F44" s="143"/>
-      <c r="G44" s="144"/>
-      <c r="H44" s="160"/>
-      <c r="I44" s="159"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="108"/>
       <c r="J44" s="2"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="13.5" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="142"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="143"/>
-      <c r="E45" s="143"/>
-      <c r="F45" s="143"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="160"/>
-      <c r="I45" s="159"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="108"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="13.5" customHeight="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="142"/>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="160"/>
-      <c r="I46" s="159"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="108"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="13.5" customHeight="1">
       <c r="A47" s="2"/>
-      <c r="B47" s="142"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="143"/>
-      <c r="E47" s="143"/>
-      <c r="F47" s="143"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="160"/>
-      <c r="I47" s="159"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="108"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="13.5" customHeight="1">
       <c r="A48" s="2"/>
-      <c r="B48" s="142"/>
-      <c r="C48" s="143"/>
-      <c r="D48" s="143"/>
-      <c r="E48" s="143"/>
-      <c r="F48" s="143"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="160"/>
-      <c r="I48" s="159"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="108"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="2"/>
-      <c r="B49" s="145"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="147"/>
-      <c r="H49" s="160"/>
-      <c r="I49" s="159"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="108"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="27" customHeight="1">
       <c r="A50" s="2"/>
-      <c r="B50" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="104"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="109"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="112"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="153"/>
+      <c r="D50" s="154"/>
+      <c r="E50" s="155"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="154"/>
+      <c r="H50" s="157"/>
+      <c r="I50" s="158"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="27" customHeight="1">
       <c r="A51" s="2"/>
-      <c r="B51" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="104"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="72"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="152"/>
+      <c r="F51" s="150"/>
+      <c r="G51" s="150"/>
+      <c r="H51" s="149"/>
+      <c r="I51" s="159"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="27" customHeight="1">
       <c r="A52" s="2"/>
-      <c r="B52" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="113"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="75"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="160"/>
+      <c r="E52" s="161"/>
+      <c r="F52" s="160"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="67"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2342,7 +2241,7 @@
       <c r="I53" s="11"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
       <c r="D54" s="12"/>
@@ -2354,6 +2253,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B9:I10"/>
+    <mergeCell ref="D3:G7"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:G52"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D27:G27"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="B43:G49"/>
     <mergeCell ref="D32:G32"/>
@@ -2366,30 +2289,6 @@
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:G52"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B9:I10"/>
-    <mergeCell ref="D3:G7"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.11811023622047249" bottom="0.27559055118110237" header="0" footer="0"/>
   <pageSetup scale="91" orientation="portrait" horizontalDpi="4294967294" verticalDpi="196" r:id="rId1"/>
